--- a/artfynd/A 25683-2023.xlsx
+++ b/artfynd/A 25683-2023.xlsx
@@ -1479,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96753488</v>
+        <v>96753486</v>
       </c>
       <c r="B9" t="n">
-        <v>57068</v>
+        <v>56540</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,21 +1495,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103057</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sävsparv</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Emberiza schoeniclus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>588107.7526155048</v>
+        <v>587944.2185945489</v>
       </c>
       <c r="R9" t="n">
-        <v>6615660.179729631</v>
+        <v>6615983.791758995</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>En rastande fågel</t>
+          <t>Två</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1596,7 +1596,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96753486</v>
+        <v>96753485</v>
       </c>
       <c r="B10" t="n">
         <v>56540</v>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>587944.2185945489</v>
+        <v>587943.3018341872</v>
       </c>
       <c r="R10" t="n">
-        <v>6615983.791758995</v>
+        <v>6615979.727613454</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Två</t>
+          <t>Flera ex i meståg</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1713,7 +1713,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96753485</v>
+        <v>96753483</v>
       </c>
       <c r="B11" t="n">
         <v>56540</v>
@@ -1749,14 +1749,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ca 600m S Nyängen, Vstm</t>
+          <t>Ca 700m V Nyängen, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>587943.3018341872</v>
+        <v>587939.1169768485</v>
       </c>
       <c r="R11" t="n">
-        <v>6615979.727613454</v>
+        <v>6615963.964132701</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1793,17 +1793,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Flera ex i meståg</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1830,14 +1825,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96753483</v>
+        <v>96859199</v>
       </c>
       <c r="B12" t="n">
-        <v>56540</v>
+        <v>89392</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ej möjlig att validera</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1846,21 +1841,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1870,13 +1865,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>587939.1169768485</v>
+        <v>587944.2185945489</v>
       </c>
       <c r="R12" t="n">
-        <v>6615963.964132701</v>
+        <v>6615983.791758995</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1916,6 +1911,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96859199</v>
+        <v>96859260</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,25 +1954,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>587944.2185945489</v>
+        <v>588048.5531239476</v>
       </c>
       <c r="R13" t="n">
-        <v>6615983.791758995</v>
+        <v>6615852.335219868</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2030,11 +2030,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2052,14 +2047,14 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Petter Andersson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96859260</v>
+        <v>96859262</v>
       </c>
       <c r="B14" t="n">
         <v>5113</v>
@@ -2099,10 +2094,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>588048.5531239476</v>
+        <v>587939.1169768485</v>
       </c>
       <c r="R14" t="n">
-        <v>6615852.335219868</v>
+        <v>6615963.964132701</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2147,6 +2142,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Gnag</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2164,17 +2164,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96859259</v>
+        <v>96859269</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>90005</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,21 +2187,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>588054.1508985941</v>
+        <v>587958.9137537086</v>
       </c>
       <c r="R15" t="n">
-        <v>6615636.17522793</v>
+        <v>6615983.126890638</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2259,6 +2259,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Gammla fruktkroppar på granlåga tillsammans med murkna klibbtickor</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2276,17 +2281,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96859262</v>
+        <v>96859198</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2295,25 +2300,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2323,10 +2328,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>587939.1169768485</v>
+        <v>587943.3018341872</v>
       </c>
       <c r="R16" t="n">
-        <v>6615963.964132701</v>
+        <v>6615979.727613454</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2373,7 +2378,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Gnag</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2393,44 +2398,44 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Anna Koffman, Petter Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96859269</v>
+        <v>96859215</v>
       </c>
       <c r="B17" t="n">
-        <v>90005</v>
+        <v>56540</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Ej möjlig att validera</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1339</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2440,13 +2445,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>587958.9137537086</v>
+        <v>587939.1594943394</v>
       </c>
       <c r="R17" t="n">
-        <v>6615983.126890638</v>
+        <v>6615983.672732322</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2486,11 +2491,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Gammla fruktkroppar på granlåga tillsammans med murkna klibbtickor</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2510,21 +2510,21 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Petter Andersson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96859198</v>
+        <v>96859224</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>56411</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Ej möjlig att validera</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2533,21 +2533,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>587943.3018341872</v>
+        <v>587936.2309676831</v>
       </c>
       <c r="R18" t="n">
-        <v>6615979.727613454</v>
+        <v>6615979.055937049</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Läte nära</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2627,44 +2627,44 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Anna Koffman, Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96859258</v>
+        <v>96859223</v>
       </c>
       <c r="B19" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Ej möjlig att validera</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>588031.5612340211</v>
+        <v>588089.3305600542</v>
       </c>
       <c r="R19" t="n">
-        <v>6615628.062664295</v>
+        <v>6615775.9780677</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2720,6 +2720,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Uppehåller sig i objektet efter att ha kommit inflygande från norr</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2746,10 +2751,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96859215</v>
+        <v>96753488</v>
       </c>
       <c r="B20" t="n">
-        <v>56540</v>
+        <v>57068</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2762,34 +2767,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>103057</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Sävsparv</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Emberiza schoeniclus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Ca 700m V Nyängen, Vstm</t>
+          <t>Ca 600m S Nyängen, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>587939.1594943394</v>
+        <v>588107.7526155048</v>
       </c>
       <c r="R20" t="n">
-        <v>6615983.672732322</v>
+        <v>6615660.179729631</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2816,7 +2821,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2826,12 +2831,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>En rastande fågel</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2858,37 +2868,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96859224</v>
+        <v>96859259</v>
       </c>
       <c r="B21" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ej möjlig att validera</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2898,13 +2908,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>587936.2309676831</v>
+        <v>588054.1508985941</v>
       </c>
       <c r="R21" t="n">
-        <v>6615979.055937049</v>
+        <v>6615636.17522793</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2944,11 +2954,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Läte nära</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2968,44 +2973,44 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Petter Andersson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96859223</v>
+        <v>96859258</v>
       </c>
       <c r="B22" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ej möjlig att validera</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3015,13 +3020,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>588089.3305600542</v>
+        <v>588031.5612340211</v>
       </c>
       <c r="R22" t="n">
-        <v>6615775.9780677</v>
+        <v>6615628.062664295</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3061,11 +3066,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Uppehåller sig i objektet efter att ha kommit inflygande från norr</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 25683-2023.xlsx
+++ b/artfynd/A 25683-2023.xlsx
@@ -1479,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96753486</v>
+        <v>96753488</v>
       </c>
       <c r="B9" t="n">
-        <v>56540</v>
+        <v>57068</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,21 +1495,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>103057</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Sävsparv</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Emberiza schoeniclus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>587944.2185945489</v>
+        <v>588107.7526155048</v>
       </c>
       <c r="R9" t="n">
-        <v>6615983.791758995</v>
+        <v>6615660.179729631</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Två</t>
+          <t>En rastande fågel</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1596,7 +1596,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96753485</v>
+        <v>96753486</v>
       </c>
       <c r="B10" t="n">
         <v>56540</v>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>587943.3018341872</v>
+        <v>587944.2185945489</v>
       </c>
       <c r="R10" t="n">
-        <v>6615979.727613454</v>
+        <v>6615983.791758995</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Flera ex i meståg</t>
+          <t>Två</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1713,7 +1713,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96753483</v>
+        <v>96753485</v>
       </c>
       <c r="B11" t="n">
         <v>56540</v>
@@ -1749,14 +1749,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Ca 700m V Nyängen, Vstm</t>
+          <t>Ca 600m S Nyängen, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>587939.1169768485</v>
+        <v>587943.3018341872</v>
       </c>
       <c r="R11" t="n">
-        <v>6615963.964132701</v>
+        <v>6615979.727613454</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1793,12 +1793,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Flera ex i meståg</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,14 +1830,14 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96859199</v>
+        <v>96753483</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>56540</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Ej möjlig att validera</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1841,21 +1846,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1865,13 +1870,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>587944.2185945489</v>
+        <v>587939.1169768485</v>
       </c>
       <c r="R12" t="n">
-        <v>6615983.791758995</v>
+        <v>6615963.964132701</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1911,11 +1916,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På granlåga</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Petter Andersson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96859260</v>
+        <v>96859199</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,25 +1954,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>588048.5531239476</v>
+        <v>587944.2185945489</v>
       </c>
       <c r="R13" t="n">
-        <v>6615852.335219868</v>
+        <v>6615983.791758995</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2030,6 +2030,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På granlåga</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2047,14 +2052,14 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96859262</v>
+        <v>96859260</v>
       </c>
       <c r="B14" t="n">
         <v>5113</v>
@@ -2094,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>587939.1169768485</v>
+        <v>588048.5531239476</v>
       </c>
       <c r="R14" t="n">
-        <v>6615963.964132701</v>
+        <v>6615852.335219868</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2142,11 +2147,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Gnag</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2164,17 +2164,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Petter Andersson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96859269</v>
+        <v>96859259</v>
       </c>
       <c r="B15" t="n">
-        <v>90005</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,21 +2187,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1339</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>587958.9137537086</v>
+        <v>588054.1508985941</v>
       </c>
       <c r="R15" t="n">
-        <v>6615983.126890638</v>
+        <v>6615636.17522793</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2259,11 +2259,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gammla fruktkroppar på granlåga tillsammans med murkna klibbtickor</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2281,17 +2276,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Petter Andersson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96859198</v>
+        <v>96859262</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2300,25 +2295,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2328,10 +2323,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>587943.3018341872</v>
+        <v>587939.1169768485</v>
       </c>
       <c r="R16" t="n">
-        <v>6615979.727613454</v>
+        <v>6615963.964132701</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2378,7 +2373,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Gnag</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,44 +2393,44 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Anna Koffman, Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96859215</v>
+        <v>96859269</v>
       </c>
       <c r="B17" t="n">
-        <v>56540</v>
+        <v>90005</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ej möjlig att validera</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>1339</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2445,13 +2440,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>587939.1594943394</v>
+        <v>587958.9137537086</v>
       </c>
       <c r="R17" t="n">
-        <v>6615983.672732322</v>
+        <v>6615983.126890638</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2491,6 +2486,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Gammla fruktkroppar på granlåga tillsammans med murkna klibbtickor</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2510,21 +2510,21 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96859224</v>
+        <v>96859198</v>
       </c>
       <c r="B18" t="n">
-        <v>56411</v>
+        <v>89392</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ej möjlig att validera</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2533,21 +2533,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>587936.2309676831</v>
+        <v>587943.3018341872</v>
       </c>
       <c r="R18" t="n">
-        <v>6615979.055937049</v>
+        <v>6615979.727613454</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Läte nära</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2627,44 +2627,44 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Anna Koffman</t>
+          <t>Anna Koffman, Petter Andersson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96859223</v>
+        <v>96859258</v>
       </c>
       <c r="B19" t="n">
-        <v>56411</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ej möjlig att validera</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2674,13 +2674,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>588089.3305600542</v>
+        <v>588031.5612340211</v>
       </c>
       <c r="R19" t="n">
-        <v>6615775.9780677</v>
+        <v>6615628.062664295</v>
       </c>
       <c r="S19" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2720,11 +2720,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Uppehåller sig i objektet efter att ha kommit inflygande från norr</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2751,10 +2746,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96753488</v>
+        <v>96859215</v>
       </c>
       <c r="B20" t="n">
-        <v>57068</v>
+        <v>56540</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2767,34 +2762,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103057</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sävsparv</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Emberiza schoeniclus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Ca 600m S Nyängen, Vstm</t>
+          <t>Ca 700m V Nyängen, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>588107.7526155048</v>
+        <v>587939.1594943394</v>
       </c>
       <c r="R20" t="n">
-        <v>6615660.179729631</v>
+        <v>6615983.672732322</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2821,7 +2816,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2831,17 +2826,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>En rastande fågel</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2868,37 +2858,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96859259</v>
+        <v>96859224</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Ej möjlig att validera</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2908,13 +2898,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>588054.1508985941</v>
+        <v>587936.2309676831</v>
       </c>
       <c r="R21" t="n">
-        <v>6615636.17522793</v>
+        <v>6615979.055937049</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2954,6 +2944,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Läte nära</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2973,44 +2968,44 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Petter Andersson</t>
+          <t>Anna Koffman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96859258</v>
+        <v>96859223</v>
       </c>
       <c r="B22" t="n">
-        <v>5113</v>
+        <v>56411</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Ej möjlig att validera</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3020,13 +3015,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>588031.5612340211</v>
+        <v>588089.3305600542</v>
       </c>
       <c r="R22" t="n">
-        <v>6615628.062664295</v>
+        <v>6615775.9780677</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3066,6 +3061,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Uppehåller sig i objektet efter att ha kommit inflygande från norr</t>
         </is>
       </c>
       <c r="AD22" t="b">
